--- a/bin/test.xlsx
+++ b/bin/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\FilterDataProject\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB41EE95-57AB-488E-B1E3-F688A30F0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3C9CEB-C167-4E88-98B6-3AD20BD583D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,138 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
-  <si>
-    <t>项目编码</t>
-  </si>
-  <si>
-    <t>站址编码</t>
-  </si>
-  <si>
-    <t>建设方式</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>移动订单号</t>
-  </si>
-  <si>
-    <t>联通订单号</t>
-  </si>
-  <si>
-    <t>电信订单号</t>
-  </si>
-  <si>
-    <t>站址类型</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目类型</t>
-  </si>
-  <si>
-    <t>立项时间</t>
-  </si>
-  <si>
-    <t>开工时间</t>
-  </si>
-  <si>
-    <t>完工时间</t>
-  </si>
-  <si>
-    <t>内验时间</t>
-  </si>
-  <si>
-    <t>起租时间</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>地市</t>
-  </si>
-  <si>
-    <t>区县</t>
-  </si>
-  <si>
-    <t>项目基础信息（后续新增需求请补充）</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>伊春</t>
-  </si>
-  <si>
-    <t>伊乌区域</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000351</t>
-  </si>
-  <si>
-    <t>230702900010001581</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>一般市区</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>1224061313775115</t>
-  </si>
-  <si>
-    <t>地面站</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊春傲城小区南新建铁塔类项目</t>
-  </si>
-  <si>
-    <t>宏站</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000352</t>
-  </si>
-  <si>
-    <t>乡镇</t>
-  </si>
-  <si>
-    <t>1224060413746878</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年乌带公路补点新建3新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>24A01HLYC011000357</t>
-  </si>
-  <si>
-    <t>1224060413746876</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点1新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24A01HLYC011000358</t>
-  </si>
-  <si>
-    <t>1224060413746874</t>
-  </si>
-  <si>
-    <t>中国铁塔黑龙江分公司伊春市分公司2024年伊翠峦伊北高速补点2新建铁塔类项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -582,30 +456,23 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="15" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -633,56 +500,26 @@
       <c r="AD1"/>
       <c r="AE1"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
@@ -700,237 +537,101 @@
       <c r="A3">
         <v>53874</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="B3" s="5">
         <v>45526</v>
       </c>
-      <c r="P3" s="5">
+      <c r="C3" s="5">
         <v>45526</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53875</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="B4" s="5">
         <v>45549</v>
       </c>
-      <c r="P4" s="5">
+      <c r="C4" s="5">
         <v>45597</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="D4" s="5">
         <v>45721</v>
       </c>
-      <c r="R4" s="5">
+      <c r="E4" s="5">
         <v>45728</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53876</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="B5" s="5">
         <v>45545</v>
       </c>
-      <c r="P5" s="5">
+      <c r="C5" s="5">
         <v>45605</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="D5" s="5">
         <v>45663</v>
       </c>
-      <c r="R5" s="5">
+      <c r="E5" s="5">
         <v>45709</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53877</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>2.3070290001000099E+17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="B6" s="5">
         <v>45545</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="C6" s="5">
+        <v>45597</v>
+      </c>
+      <c r="D6" s="5">
         <v>45663</v>
       </c>
-      <c r="R6" s="5">
+      <c r="E6" s="5">
         <v>45728</v>
       </c>
-      <c r="S6" s="5">
+      <c r="F6" s="5">
         <v>45749</v>
       </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
